--- a/SEM in R/Quinn_Notes.xlsx
+++ b/SEM in R/Quinn_Notes.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/SEM in R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{737A221D-7FC4-43CF-B00B-E511F3168D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{73D9D06A-447D-4725-A8B4-F94780369F70}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="8_{737A221D-7FC4-43CF-B00B-E511F3168D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ED81FC3A-7846-4396-9FFA-4A8109EAB02C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3EF1A710-6A72-4739-B301-7D4DC35B80AF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3EF1A710-6A72-4739-B301-7D4DC35B80AF}"/>
   </bookViews>
   <sheets>
-    <sheet name="VARS" sheetId="1" r:id="rId1"/>
+    <sheet name="Full Model" sheetId="1" r:id="rId1"/>
+    <sheet name="By Gender" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>ELEMSCHOOL</t>
   </si>
@@ -123,6 +124,69 @@
   </si>
   <si>
     <t>TRAUMACRIME + TRAUMAPOVERTY + TRAUMAFAMILY + juvenileincarceration + age + twoparenthome + black + hispanic + SES + citizenship + gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAUMACRIME + TRAUMAPOVERTY + TRAUMAFAMILY </t>
+  </si>
+  <si>
+    <t>TRAUMACRIME + TRAUMAPOVERTY + TRAUMAFAMILY + juvenileincarceration + black</t>
+  </si>
+  <si>
+    <t>TRAUMACRIME + TRAUMAPOVERTY + TRAUMAFAMILY + juvenileincarceration + SES</t>
+  </si>
+  <si>
+    <t>TRAUMACRIME + TRAUMAPOVERTY + TRAUMAFAMILY + age</t>
+  </si>
+  <si>
+    <t>TRAUMACRIME + TRAUMAPOVERTY + TRAUMAFAMILY + SES</t>
+  </si>
+  <si>
+    <t>TRAUMACRIME + TRAUMAPOVERTY + TRAUMAFAMILY + geography97</t>
+  </si>
+  <si>
+    <t>TRAUMACRIME + TRAUMAPOVERTY + TRAUMAFAMILY + juvenileincarceration + geography97</t>
+  </si>
+  <si>
+    <t>TRAUMACRIME + TRAUMAPOVERTY + TRAUMAFAMILY + juvenileincarceration + geography97 + SES</t>
+  </si>
+  <si>
+    <t>TRAUMACRIME + TRAUMAPOVERTY + TRAUMAFAMILY + juvenileincarceration + geography97 + age</t>
+  </si>
+  <si>
+    <t>TRAUMACRIME + TRAUMAPOVERTY + TRAUMAFAMILY + juvenileincarceration + geography97 + age + twoparenthome</t>
+  </si>
+  <si>
+    <t>TRAUMACRIME + TRAUMAPOVERTY + TRAUMAFAMILY + juvenileincarceration + geography97 + age + twoparenthome + black</t>
+  </si>
+  <si>
+    <t>TRAUMACRIME + TRAUMAPOVERTY + TRAUMAFAMILY + juvenileincarceration + geography97 + age + twoparenthome + black + hispanic</t>
+  </si>
+  <si>
+    <t>TRAUMACRIME + TRAUMAPOVERTY + TRAUMAFAMILY + juvenileincarceration + geography97 + age + twoparenthome + hispanic</t>
+  </si>
+  <si>
+    <t>hispanic</t>
+  </si>
+  <si>
+    <t>TRAUMACRIME + TRAUMAPOVERTY + TRAUMAFAMILY + juvenileincarceration + geography97 + age + twoparenthome + black + geography97 + citizenship</t>
+  </si>
+  <si>
+    <t>TRAUMACRIME + TRAUMAPOVERTY + TRAUMAFAMILY + juvenileincarceration + geography97 + age + twoparenthome + black + geography97 + hispanic</t>
+  </si>
+  <si>
+    <t>TRAUMACRIME + TRAUMAPOVERTY + TRAUMAFAMILY + juvenileincarceration + geography97 + age + twoparenthome + black + SES</t>
+  </si>
+  <si>
+    <t>TRAUMACRIME + TRAUMAPOVERTY + TRAUMAFAMILY + juvenileincarceration + geography97 + age + twoparenthome + black + citizenship</t>
+  </si>
+  <si>
+    <t>TRAUMACRIME + TRAUMAPOVERTY + TRAUMAFAMILY + juvenileincarceration + geography97 + age + twoparenthome + hispanic + black + citizenship</t>
+  </si>
+  <si>
+    <t>TRAUMACRIME + TRAUMAPOVERTY + TRAUMAFAMILY + juvenileincarceration + geography97 + age + twoparenthome + black + hispanic + SES</t>
+  </si>
+  <si>
+    <t>TRAUMACRIME + TRAUMAPOVERTY + TRAUMAFAMILY + juvenileincarceration + geography97 + age + twoparenthome + black + hispanic + SES + citizenship</t>
   </si>
 </sst>
 </file>
@@ -169,10 +233,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,136 +554,271 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CB4E13-FE62-4F42-8167-2DE89707DA1F}">
   <dimension ref="A1:B16"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="142.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AD2250-E4B8-4CC4-8106-C5EFE329A14F}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="142.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="118.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="129" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/SEM in R/Quinn_Notes.xlsx
+++ b/SEM in R/Quinn_Notes.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/SEM in R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="8_{737A221D-7FC4-43CF-B00B-E511F3168D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ED81FC3A-7846-4396-9FFA-4A8109EAB02C}"/>
+  <xr:revisionPtr revIDLastSave="311" documentId="8_{737A221D-7FC4-43CF-B00B-E511F3168D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EE58EAFC-A445-4267-9FEE-63FE24936171}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3EF1A710-6A72-4739-B301-7D4DC35B80AF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{3EF1A710-6A72-4739-B301-7D4DC35B80AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Model" sheetId="1" r:id="rId1"/>
     <sheet name="By Gender" sheetId="2" r:id="rId2"/>
+    <sheet name="StatsFullModel" sheetId="3" r:id="rId3"/>
+    <sheet name="StatsGenderModel" sheetId="4" r:id="rId4"/>
+    <sheet name="StatsGenderRaceModel" sheetId="5" r:id="rId5"/>
+    <sheet name="Workspace" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="80">
   <si>
     <t>ELEMSCHOOL</t>
   </si>
@@ -187,13 +191,104 @@
   </si>
   <si>
     <t>TRAUMACRIME + TRAUMAPOVERTY + TRAUMAFAMILY + juvenileincarceration + geography97 + age + twoparenthome + black + hispanic + SES + citizenship</t>
+  </si>
+  <si>
+    <t>adultincarceration</t>
+  </si>
+  <si>
+    <t>TRAUMAPOVERTY</t>
+  </si>
+  <si>
+    <t>TRAUMAFAMILY</t>
+  </si>
+  <si>
+    <t>HIGHSCHOOL</t>
+  </si>
+  <si>
+    <t>juvenilncrcrtn</t>
+  </si>
+  <si>
+    <t>CRIME</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>twoparenthome</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>geography97</t>
+  </si>
+  <si>
+    <t>SES</t>
+  </si>
+  <si>
+    <t>citizenship</t>
+  </si>
+  <si>
+    <t>DELINQUENCY</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Std.all</t>
+  </si>
+  <si>
+    <t>Odds Ratio</t>
+  </si>
+  <si>
+    <t>Gender = 0</t>
+  </si>
+  <si>
+    <t>P(&gt;|z|)</t>
+  </si>
+  <si>
+    <t>Std.lv</t>
+  </si>
+  <si>
+    <t>Gender = 1</t>
+  </si>
+  <si>
+    <t>Gender = 0 &amp; Race = Black</t>
+  </si>
+  <si>
+    <t>Gender = 0 &amp; Race = Hispanic</t>
+  </si>
+  <si>
+    <t>Gender = 0 &amp; Race = Other</t>
+  </si>
+  <si>
+    <t>Gender = 1 &amp; Race = White</t>
+  </si>
+  <si>
+    <t>Gender = 1 &amp; Race = Black</t>
+  </si>
+  <si>
+    <t>Gender = 1 &amp; Race = Hispanic</t>
+  </si>
+  <si>
+    <t>Gender = 1 &amp; Race = Other</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Gender = Female &amp; Race = White</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,13 +304,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002240"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -230,12 +342,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -564,10 +703,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -698,7 +837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AD2250-E4B8-4CC4-8106-C5EFE329A14F}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -709,10 +848,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -827,4 +966,5101 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2908F8-ED02-40EE-BDBA-3204D10510D0}">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="12" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-0.622</v>
+      </c>
+      <c r="D2" s="3">
+        <f>EXP(C2)</f>
+        <v>0.53686962389145954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D44" si="0">EXP(C3)</f>
+        <v>0.92588985360649534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5053117204855597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3485096234729106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8589280418463421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7">
+        <v>1E-3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0811226586700831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1864907490217118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9">
+        <v>0.251</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0335505392413056</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10">
+        <v>0.183</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0996588551261028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0523228932832038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0010005001667084</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.97921896456945956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.214</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2386226547934522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0130848673598092</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>0.79</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98314368463490964</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.262</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5324793858860009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0575976837366112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20">
+        <v>0.02</v>
+      </c>
+      <c r="C20" s="2">
+        <v>-0.82299999999999995</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.43911233950446971</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0.183</v>
+      </c>
+      <c r="C21" s="2">
+        <v>-0.152</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.85898828074112343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C22" s="2">
+        <v>-0.218</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.80412544166655964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23">
+        <v>0.217</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0376930208381572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94364994743679853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>-0.186</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.83027359498193265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0356197087996233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0356197087996233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28">
+        <v>0.61</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0140984589384923</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C29" s="2">
+        <v>-0.36699999999999999</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>0.69280964504439169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="C30" s="2">
+        <v>-2E-3</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99800199866733308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1864907490217118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>2.2122276626587873</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0294245944751308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
+        <v>-0.442</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="0"/>
+        <v>0.64274963545553121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0325175053051183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C37" s="2">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95599748183309996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92681620655938224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0865418085482381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="C40" s="2">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="0"/>
+        <v>0.997004495503373</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="C41" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0070245572668486</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2">
+        <v>-0.14399999999999999</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="0"/>
+        <v>0.86588774805920499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C43" s="2">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0554846021550801</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1411083192672351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A1E411-4DE5-4CF7-BB70-ED4DD1FD5B84}">
+  <dimension ref="A1:E86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.628</v>
+      </c>
+      <c r="C4">
+        <v>-1.304</v>
+      </c>
+      <c r="D4">
+        <v>-0.28799999999999998</v>
+      </c>
+      <c r="E4" s="3">
+        <f>EXP(D4)</f>
+        <v>0.74976159223904126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="C5">
+        <v>-0.21099999999999999</v>
+      </c>
+      <c r="D5">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" ref="E5:E17" si="0">EXP(D5)</f>
+        <v>0.95408739759037109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="C6">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D6">
+        <v>0.216</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2411023790006717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C7">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.219</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2448312766875311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="C8">
+        <v>0.79</v>
+      </c>
+      <c r="D8">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1900555658203626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="D9">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0639623447280337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.87</v>
+      </c>
+      <c r="D10">
+        <v>0.192</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2116705169649005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="C11">
+        <v>0.104</v>
+      </c>
+      <c r="D11">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0335505392413056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="C12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0060180360540649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="C13">
+        <v>-0.19400000000000001</v>
+      </c>
+      <c r="D13">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.981179362242806</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.371</v>
+      </c>
+      <c r="C14">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D14">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0232665395472176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C15">
+        <v>-0.48099999999999998</v>
+      </c>
+      <c r="D15">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95408739759037109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="C16">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="D16">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0597149957102876</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="C17">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="D17">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>1.028395684421425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="C19">
+        <v>1.7589999999999999</v>
+      </c>
+      <c r="D19">
+        <v>1.7589999999999999</v>
+      </c>
+      <c r="E19" s="3">
+        <f>EXP(D19)</f>
+        <v>5.8066278622583853</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="C20">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D20">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" ref="E20:E31" si="1">EXP(D20)</f>
+        <v>1.0325175053051183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="C21">
+        <v>-1.284</v>
+      </c>
+      <c r="D21">
+        <v>-1.284</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="1"/>
+        <v>0.27692737258701711</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="C22">
+        <v>-0.14899999999999999</v>
+      </c>
+      <c r="D22">
+        <v>-0.14899999999999999</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.86156911489895827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="C23">
+        <v>-0.41499999999999998</v>
+      </c>
+      <c r="D23">
+        <v>-0.41499999999999998</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="1"/>
+        <v>0.66034028070498285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="C24">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="D24">
+        <v>-0.03</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.97044553354850815</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="C25">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="D25">
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.90393303288586413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="C26">
+        <v>-0.32600000000000001</v>
+      </c>
+      <c r="D26">
+        <v>-0.16300000000000001</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="1"/>
+        <v>0.84959118841459025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="C27">
+        <v>-0.125</v>
+      </c>
+      <c r="D27">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="1"/>
+        <v>0.94553913589039629</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="C28">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="D28">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="1"/>
+        <v>0.981179362242806</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="C29">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="D29">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99501247919268232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="C30">
+        <v>-0.94499999999999995</v>
+      </c>
+      <c r="D30">
+        <v>-0.47199999999999998</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="1"/>
+        <v>0.62375351291775216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="C31">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="D31">
+        <v>-1E-3</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99900049983337502</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="D33">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="E33" s="3">
+        <f>EXP(D33)</f>
+        <v>2.0917478325432208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="C34">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D34">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" ref="E34:E43" si="2">EXP(D34)</f>
+        <v>1.0140984589384923</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>-0.58099999999999996</v>
+      </c>
+      <c r="D35">
+        <v>-0.58099999999999996</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="2"/>
+        <v>0.55933874805472683</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="C36">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="D36">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="2"/>
+        <v>0.99501247919268232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C37">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="D37">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="2"/>
+        <v>0.95886978057248451</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>-0.19900000000000001</v>
+      </c>
+      <c r="D38">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" si="2"/>
+        <v>0.9057427080235485</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C39">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D39">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0628989141871952</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="C40">
+        <v>-8.7999999999999995E-2</v>
+      </c>
+      <c r="D40">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="2"/>
+        <v>0.96464029348312308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="C41">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D41">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0387312328784977</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>-0.248</v>
+      </c>
+      <c r="D42">
+        <v>-0.124</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="2"/>
+        <v>0.8833798408827509</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="C43">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="D43">
+        <v>0.03</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0304545339535169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C47">
+        <v>-35.570999999999998</v>
+      </c>
+      <c r="D47">
+        <v>-1.792</v>
+      </c>
+      <c r="E47" s="3">
+        <f>EXP(D47)</f>
+        <v>0.16662658302554365</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="C48">
+        <v>5.8970000000000002</v>
+      </c>
+      <c r="D48">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" ref="E48:E86" si="3">EXP(D48)</f>
+        <v>1.3458152994480976</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="C49">
+        <v>24.731000000000002</v>
+      </c>
+      <c r="D49">
+        <v>1.246</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" si="3"/>
+        <v>3.4764094711825293</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>1E-3</v>
+      </c>
+      <c r="C50">
+        <v>24.228000000000002</v>
+      </c>
+      <c r="D50">
+        <v>1.2210000000000001</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" si="3"/>
+        <v>3.3905766155134955</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="C51">
+        <v>-2.78</v>
+      </c>
+      <c r="D51">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" si="3"/>
+        <v>0.86935823539880586</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>0.247</v>
+      </c>
+      <c r="C52">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="D52">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0607752407401589</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>3.645</v>
+      </c>
+      <c r="D53">
+        <v>0.184</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2020158230963014</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="C54">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="D54">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0376930208381572</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>0.77</v>
+      </c>
+      <c r="C55">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="D55">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0151130646157189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="C56">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="D56">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0080320855042735</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="C57">
+        <v>1.111</v>
+      </c>
+      <c r="D57">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0232665395472176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="C58">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D58">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0222437844704382</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="C59">
+        <v>4.9729999999999999</v>
+      </c>
+      <c r="D59">
+        <v>0.125</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1331484530668263</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="C60">
+        <v>-4.4340000000000002</v>
+      </c>
+      <c r="D60">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" si="3"/>
+        <v>0.92867169384128723</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="C62">
+        <v>-4.9269999999999996</v>
+      </c>
+      <c r="D62">
+        <v>-4.9269999999999996</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" si="3"/>
+        <v>7.2482153430290276E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="C63">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="D63">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5269170439795579</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="C64">
+        <v>3.5179999999999998</v>
+      </c>
+      <c r="D64">
+        <v>3.5179999999999998</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" si="3"/>
+        <v>33.716927130755387</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="C65">
+        <v>2.5649999999999999</v>
+      </c>
+      <c r="D65">
+        <v>2.5649999999999999</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" si="3"/>
+        <v>13.000658369670637</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="C66">
+        <v>0.435</v>
+      </c>
+      <c r="D66">
+        <v>0.435</v>
+      </c>
+      <c r="E66" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5449630589513383</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67">
+        <v>0.97</v>
+      </c>
+      <c r="C67">
+        <v>-6.3E-2</v>
+      </c>
+      <c r="D67">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+      <c r="E67" s="3">
+        <f t="shared" si="3"/>
+        <v>0.92035114722012468</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="C68">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D68">
+        <v>0.108</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1140477453864677</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="C69">
+        <v>-2E-3</v>
+      </c>
+      <c r="D69">
+        <v>-1E-3</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" si="3"/>
+        <v>0.99900049983337502</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="C70">
+        <v>-0.44600000000000001</v>
+      </c>
+      <c r="D70">
+        <v>-0.19600000000000001</v>
+      </c>
+      <c r="E70" s="3">
+        <f t="shared" si="3"/>
+        <v>0.82201223467818652</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="C71">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D71">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E71" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0554846021550801</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="C72">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="D72">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E72" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0639623447280337</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>61</v>
+      </c>
+      <c r="B73">
+        <v>0.97</v>
+      </c>
+      <c r="C73">
+        <v>0.376</v>
+      </c>
+      <c r="D73">
+        <v>0.188</v>
+      </c>
+      <c r="E73" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2068335153496053</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="C74">
+        <v>-0.64900000000000002</v>
+      </c>
+      <c r="D74">
+        <v>-0.214</v>
+      </c>
+      <c r="E74" s="3">
+        <f t="shared" si="3"/>
+        <v>0.80734838502268147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C76">
+        <v>1.655</v>
+      </c>
+      <c r="D76">
+        <v>1.655</v>
+      </c>
+      <c r="E76" s="3">
+        <f t="shared" si="3"/>
+        <v>5.2330799221780682</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>52</v>
+      </c>
+      <c r="B77">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="C77">
+        <v>-0.17199999999999999</v>
+      </c>
+      <c r="D77">
+        <v>-0.17199999999999999</v>
+      </c>
+      <c r="E77" s="3">
+        <f t="shared" si="3"/>
+        <v>0.84197917316849991</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C78">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="D78">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="E78" s="3">
+        <f t="shared" si="3"/>
+        <v>0.32627979462303947</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79">
+        <v>0.156</v>
+      </c>
+      <c r="C79">
+        <v>0.04</v>
+      </c>
+      <c r="D79">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E79" s="3">
+        <f t="shared" si="3"/>
+        <v>1.054429645119356</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>57</v>
+      </c>
+      <c r="B80">
+        <v>0.222</v>
+      </c>
+      <c r="C80">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="D80">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="E80" s="3">
+        <f t="shared" si="3"/>
+        <v>0.95886978057248451</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>58</v>
+      </c>
+      <c r="B81">
+        <v>0.127</v>
+      </c>
+      <c r="C81">
+        <v>-0.13</v>
+      </c>
+      <c r="D81">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="E81" s="3">
+        <f t="shared" si="3"/>
+        <v>0.93706746337740343</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>59</v>
+      </c>
+      <c r="B82">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C82">
+        <v>0.245</v>
+      </c>
+      <c r="D82">
+        <v>0.107</v>
+      </c>
+      <c r="E82" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1129342544793257</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83">
+        <v>0.86</v>
+      </c>
+      <c r="C83">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D83">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E83" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0060180360540649</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>60</v>
+      </c>
+      <c r="B84">
+        <v>0.76</v>
+      </c>
+      <c r="C84">
+        <v>-0.02</v>
+      </c>
+      <c r="D84">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="E84" s="3">
+        <f t="shared" si="3"/>
+        <v>0.99104037877288365</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>61</v>
+      </c>
+      <c r="B85">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="C85">
+        <v>-0.34499999999999997</v>
+      </c>
+      <c r="D85">
+        <v>-0.17199999999999999</v>
+      </c>
+      <c r="E85" s="3">
+        <f t="shared" si="3"/>
+        <v>0.84197917316849991</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>62</v>
+      </c>
+      <c r="B86">
+        <v>0.1</v>
+      </c>
+      <c r="C86">
+        <v>0.247</v>
+      </c>
+      <c r="D86">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E86" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0843708965667604</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A45:E45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAAF5CD-70F7-4B10-9E84-BD9EF2E2E0B8}">
+  <dimension ref="A1:E296"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="C41" s="2">
+        <v>3.944</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="E41" s="3">
+        <f>EXP(D41)</f>
+        <v>2.2411743681943785</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C42" s="2">
+        <v>-1.2829999999999999</v>
+      </c>
+      <c r="D42" s="2">
+        <v>-0.26300000000000001</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" ref="E42:E74" si="0">EXP(D42)</f>
+        <v>0.76874189731116027</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="C43" s="2">
+        <v>3.1269999999999998</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8964808793049515</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2.08</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5311207751332474</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="C45" s="2">
+        <v>4.12</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3233265117943045</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1.012</v>
+      </c>
+      <c r="D46" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0460278599087169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="D47" s="2">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0822043220703148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.159</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1723379466807176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="D49" s="2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1018603736210106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="C50" s="2">
+        <v>-0.92300000000000004</v>
+      </c>
+      <c r="D50" s="2">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92867169384128723</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.439</v>
+      </c>
+      <c r="C51" s="2">
+        <v>3.1659999999999999</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.309</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" si="0"/>
+        <v>1.362062370503422</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0181629763897937</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" si="0"/>
+        <v>2.2210942947514352</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1.226</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1.226</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="0"/>
+        <v>3.407571951524154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7177237273365471</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C57" s="2">
+        <v>-0.29399999999999998</v>
+      </c>
+      <c r="D57" s="2">
+        <v>-0.29399999999999998</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" si="0"/>
+        <v>0.74527649144328867</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="2">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" si="0"/>
+        <v>2.7704229553356319</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="C59" s="2">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="D59" s="2">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99302444293323511</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="C60" s="2">
+        <v>-0.111</v>
+      </c>
+      <c r="D60" s="2">
+        <v>-0.16600000000000001</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" si="0"/>
+        <v>0.84704623418939962</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C61" s="2">
+        <v>-0.29099999999999998</v>
+      </c>
+      <c r="D61" s="2">
+        <v>-0.128</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" si="0"/>
+        <v>0.87985337914464379</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.436</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.182</v>
+      </c>
+      <c r="D62" s="2">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0735812258683575</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.192</v>
+      </c>
+      <c r="C63" s="2">
+        <v>-0.86699999999999999</v>
+      </c>
+      <c r="D63" s="2">
+        <v>-0.41299999999999998</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" si="0"/>
+        <v>0.66166228282784834</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="C64" s="2">
+        <v>-0.11</v>
+      </c>
+      <c r="D64" s="2">
+        <v>-0.02</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98019867330675525</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2">
+        <v>-0.58599999999999997</v>
+      </c>
+      <c r="D66" s="2">
+        <v>-0.58599999999999997</v>
+      </c>
+      <c r="E66" s="3">
+        <f t="shared" si="0"/>
+        <v>0.55654903441046488</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="C67" s="2">
+        <v>-2E-3</v>
+      </c>
+      <c r="D67" s="2">
+        <v>-2E-3</v>
+      </c>
+      <c r="E67" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99800199866733308</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="C68" s="2">
+        <v>-0.45900000000000002</v>
+      </c>
+      <c r="D68" s="2">
+        <v>-0.45900000000000002</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" si="0"/>
+        <v>0.63191524489949591</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.623</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1456818935948618</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="C70" s="2">
+        <v>-0.04</v>
+      </c>
+      <c r="D70" s="2">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="E70" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94270676915709972</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B71" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C71" s="2">
+        <v>-0.21299999999999999</v>
+      </c>
+      <c r="D71" s="2">
+        <v>-9.4E-2</v>
+      </c>
+      <c r="E71" s="3">
+        <f t="shared" si="0"/>
+        <v>0.91028276224076698</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="C72" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E72" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0181629763897937</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>61</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C73" s="2">
+        <v>-0.216</v>
+      </c>
+      <c r="D73" s="2">
+        <v>-0.10299999999999999</v>
+      </c>
+      <c r="E73" s="3">
+        <f t="shared" si="0"/>
+        <v>0.90212697348151649</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="C74" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E74" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0140984589384923</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B150" s="13"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B187" s="13"/>
+      <c r="C187" s="13"/>
+      <c r="D187" s="13"/>
+      <c r="E187" s="13"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B224" s="13"/>
+      <c r="C224" s="13"/>
+      <c r="D224" s="13"/>
+      <c r="E224" s="13"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>14</v>
+      </c>
+      <c r="B226" s="2">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="C226" s="2">
+        <v>5.0060000000000002</v>
+      </c>
+      <c r="D226" s="2">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="E226" s="3">
+        <f>EXP(D226)</f>
+        <v>1.3391030176392937</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>52</v>
+      </c>
+      <c r="B227" s="2">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="C227" s="2">
+        <v>-1.3779999999999999</v>
+      </c>
+      <c r="D227" s="2">
+        <v>-0.08</v>
+      </c>
+      <c r="E227" s="3">
+        <f t="shared" ref="E227:E259" si="1">EXP(D227)</f>
+        <v>0.92311634638663576</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>53</v>
+      </c>
+      <c r="B228" s="2">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="C228" s="2">
+        <v>-8.1000000000000003E-2</v>
+      </c>
+      <c r="D228" s="2">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="E228" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99501247919268232</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>0</v>
+      </c>
+      <c r="B229" s="2">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="C229" s="2">
+        <v>-2.714</v>
+      </c>
+      <c r="D229" s="2">
+        <v>-0.158</v>
+      </c>
+      <c r="E229" s="3">
+        <f t="shared" si="1"/>
+        <v>0.85384978196848171</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>54</v>
+      </c>
+      <c r="B230" s="2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C230" s="2">
+        <v>5.8140000000000001</v>
+      </c>
+      <c r="D230" s="2">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="E230" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4035433452127262</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>55</v>
+      </c>
+      <c r="B231" s="2">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="C231" s="2">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="D231" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E231" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0080320855042735</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>56</v>
+      </c>
+      <c r="B232" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C232" s="2">
+        <v>1.548</v>
+      </c>
+      <c r="D232" s="2">
+        <v>0.105</v>
+      </c>
+      <c r="E232" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1107106103557052</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>57</v>
+      </c>
+      <c r="B233" s="2">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="C233" s="2">
+        <v>-0.56399999999999995</v>
+      </c>
+      <c r="D233" s="2">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="E233" s="3">
+        <f t="shared" si="1"/>
+        <v>0.95313378707750473</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>58</v>
+      </c>
+      <c r="B234" s="2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C234" s="2">
+        <v>-2.5760000000000001</v>
+      </c>
+      <c r="D234" s="2">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="E234" s="3">
+        <f t="shared" si="1"/>
+        <v>0.92774348632855286</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>60</v>
+      </c>
+      <c r="B235" s="2">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="C235" s="2">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="D235" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E235" s="3">
+        <f t="shared" si="1"/>
+        <v>1.005012520859401</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>61</v>
+      </c>
+      <c r="B236" s="2">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="C236" s="2">
+        <v>0.111</v>
+      </c>
+      <c r="D236" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E236" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0030045045033771</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>62</v>
+      </c>
+      <c r="B237" s="2">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C237" s="2">
+        <v>1.974</v>
+      </c>
+      <c r="D237" s="2">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E237" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0586558103955002</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>14</v>
+      </c>
+      <c r="B239" s="2">
+        <v>0.186</v>
+      </c>
+      <c r="C239" s="2">
+        <v>0.745</v>
+      </c>
+      <c r="D239" s="2">
+        <v>0.745</v>
+      </c>
+      <c r="E239" s="3">
+        <f t="shared" si="1"/>
+        <v>2.1064414349807272</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>52</v>
+      </c>
+      <c r="B240" s="2">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="C240" s="2">
+        <v>-0.45600000000000002</v>
+      </c>
+      <c r="D240" s="2">
+        <v>-0.45600000000000002</v>
+      </c>
+      <c r="E240" s="3">
+        <f t="shared" si="1"/>
+        <v>0.63381383709854899</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>53</v>
+      </c>
+      <c r="B241" s="2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="C241" s="2">
+        <v>-0.82499999999999996</v>
+      </c>
+      <c r="D241" s="2">
+        <v>-0.82499999999999996</v>
+      </c>
+      <c r="E241" s="3">
+        <f t="shared" si="1"/>
+        <v>0.43823499246494924</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>0</v>
+      </c>
+      <c r="B242" s="2">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="C242" s="2">
+        <v>0.249</v>
+      </c>
+      <c r="D242" s="2">
+        <v>0.249</v>
+      </c>
+      <c r="E242" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2827420330698114</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>63</v>
+      </c>
+      <c r="B243" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C243" s="2">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="D243" s="2">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E243" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4405140081492172</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>55</v>
+      </c>
+      <c r="B244" s="2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C244" s="2">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D244" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E244" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0941742837052104</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>57</v>
+      </c>
+      <c r="B245" s="2">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="C245" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D245" s="2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E245" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0597149957102876</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>58</v>
+      </c>
+      <c r="B246" s="2">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="C246" s="2">
+        <v>-0.191</v>
+      </c>
+      <c r="D246" s="2">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+      <c r="E246" s="3">
+        <f t="shared" si="1"/>
+        <v>0.90937293446823142</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>60</v>
+      </c>
+      <c r="B247" s="2">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="C247" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="D247" s="2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E247" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0597149957102876</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>61</v>
+      </c>
+      <c r="B248" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="C248" s="2">
+        <v>-0.42099999999999999</v>
+      </c>
+      <c r="D248" s="2">
+        <v>-0.193</v>
+      </c>
+      <c r="E248" s="3">
+        <f t="shared" si="1"/>
+        <v>0.82448197413910818</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>62</v>
+      </c>
+      <c r="B249" s="2">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="C249" s="2">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="D249" s="2">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="E249" s="3">
+        <f t="shared" si="1"/>
+        <v>0.98807171286193052</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>14</v>
+      </c>
+      <c r="B251" s="2">
+        <v>0.214</v>
+      </c>
+      <c r="C251" s="2">
+        <v>-1.58</v>
+      </c>
+      <c r="D251" s="2">
+        <v>-1.58</v>
+      </c>
+      <c r="E251" s="3">
+        <f t="shared" si="1"/>
+        <v>0.20597509820488344</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>52</v>
+      </c>
+      <c r="B252" s="2">
+        <v>0.111</v>
+      </c>
+      <c r="C252" s="2">
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="D252" s="2">
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="E252" s="3">
+        <f t="shared" si="1"/>
+        <v>4.1620177802208342</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>53</v>
+      </c>
+      <c r="B253" s="2">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C253" s="2">
+        <v>1.708</v>
+      </c>
+      <c r="D253" s="2">
+        <v>1.708</v>
+      </c>
+      <c r="E253" s="3">
+        <f t="shared" si="1"/>
+        <v>5.5179146052234467</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>55</v>
+      </c>
+      <c r="B254" s="2">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="C254" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D254" s="2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E254" s="3">
+        <f t="shared" si="1"/>
+        <v>1.054429645119356</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>57</v>
+      </c>
+      <c r="B255" s="2">
+        <v>0.626</v>
+      </c>
+      <c r="C255" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D255" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E255" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0273678027634894</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>58</v>
+      </c>
+      <c r="B256" s="2">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="C256" s="2">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+      <c r="D256" s="2">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+      <c r="E256" s="3">
+        <f t="shared" si="1"/>
+        <v>0.9598291299477989</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>60</v>
+      </c>
+      <c r="B257" s="2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C257" s="2">
+        <v>-0.35399999999999998</v>
+      </c>
+      <c r="D257" s="2">
+        <v>-0.114</v>
+      </c>
+      <c r="E257" s="3">
+        <f t="shared" si="1"/>
+        <v>0.8922579558824083</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>61</v>
+      </c>
+      <c r="B258" s="2">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="C258" s="2">
+        <v>-0.11799999999999999</v>
+      </c>
+      <c r="D258" s="2">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="E258" s="3">
+        <f t="shared" si="1"/>
+        <v>0.94743210650179832</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>62</v>
+      </c>
+      <c r="B259" s="2">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="C259" s="2">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="D259" s="2">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E259" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0757305369147034</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B261" s="13"/>
+      <c r="C261" s="13"/>
+      <c r="D261" s="13"/>
+      <c r="E261" s="13"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A224:E224"/>
+    <mergeCell ref="A261:E261"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="A187:E187"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31926CAF-62B9-4A34-B47E-65B757D7C979}">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="D3">
+        <v>5.0060000000000002</v>
+      </c>
+      <c r="E3">
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="D4">
+        <v>-1.3779999999999999</v>
+      </c>
+      <c r="E4">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D5">
+        <v>-8.1000000000000003E-2</v>
+      </c>
+      <c r="E5">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D6">
+        <v>-2.714</v>
+      </c>
+      <c r="E6">
+        <v>-0.158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D7">
+        <v>5.8140000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="D8">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="E8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>0.01</v>
+      </c>
+      <c r="D9">
+        <v>1.548</v>
+      </c>
+      <c r="E9">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="D10">
+        <v>-0.56399999999999995</v>
+      </c>
+      <c r="E10">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D11">
+        <v>-2.5760000000000001</v>
+      </c>
+      <c r="E11">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="D12">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="E12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="D13">
+        <v>0.111</v>
+      </c>
+      <c r="E13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D14">
+        <v>1.974</v>
+      </c>
+      <c r="E14">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>0.186</v>
+      </c>
+      <c r="D16">
+        <v>0.745</v>
+      </c>
+      <c r="E16">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="D17">
+        <v>-0.45600000000000002</v>
+      </c>
+      <c r="E17">
+        <v>-0.45600000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D18">
+        <v>-0.82499999999999996</v>
+      </c>
+      <c r="E18">
+        <v>-0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D19">
+        <v>0.249</v>
+      </c>
+      <c r="E19">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D20">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E20">
+        <v>0.36499999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D21">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D22">
+        <v>0.04</v>
+      </c>
+      <c r="E22">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D23">
+        <v>-0.191</v>
+      </c>
+      <c r="E23">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="D24">
+        <v>0.18</v>
+      </c>
+      <c r="E24">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25">
+        <v>2E-3</v>
+      </c>
+      <c r="D25">
+        <v>-0.42099999999999999</v>
+      </c>
+      <c r="E25">
+        <v>-0.193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="D26">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="E26">
+        <v>-1.2E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>0.214</v>
+      </c>
+      <c r="D28">
+        <v>-1.58</v>
+      </c>
+      <c r="E28">
+        <v>-1.58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29">
+        <v>0.111</v>
+      </c>
+      <c r="D29">
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="E29">
+        <v>1.4259999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D30">
+        <v>1.708</v>
+      </c>
+      <c r="E30">
+        <v>1.708</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="D31">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E31">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32">
+        <v>0.626</v>
+      </c>
+      <c r="D32">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E32">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="D33">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+      <c r="E33">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D34">
+        <v>-0.35399999999999998</v>
+      </c>
+      <c r="E34">
+        <v>-0.114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="D35">
+        <v>-0.11799999999999999</v>
+      </c>
+      <c r="E35">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="D36">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="E36">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SEM in R/Quinn_Notes.xlsx
+++ b/SEM in R/Quinn_Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/SEM in R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="311" documentId="8_{737A221D-7FC4-43CF-B00B-E511F3168D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EE58EAFC-A445-4267-9FEE-63FE24936171}"/>
+  <xr:revisionPtr revIDLastSave="433" documentId="8_{737A221D-7FC4-43CF-B00B-E511F3168D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BAC98144-4127-47CC-BD35-FEE27A5C4E14}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{3EF1A710-6A72-4739-B301-7D4DC35B80AF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{3EF1A710-6A72-4739-B301-7D4DC35B80AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Model" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="StatsFullModel" sheetId="3" r:id="rId3"/>
     <sheet name="StatsGenderModel" sheetId="4" r:id="rId4"/>
     <sheet name="StatsGenderRaceModel" sheetId="5" r:id="rId5"/>
-    <sheet name="Workspace" sheetId="6" r:id="rId6"/>
+    <sheet name="Tables" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="91">
   <si>
     <t>ELEMSCHOOL</t>
   </si>
@@ -274,10 +274,43 @@
     <t>Gender = 1 &amp; Race = Other</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
     <t>Gender = Female &amp; Race = White</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>elementmiddledropout</t>
+  </si>
+  <si>
+    <t>highdropout</t>
+  </si>
+  <si>
+    <t>Jincarceration</t>
+  </si>
+  <si>
+    <t>Aincarceration</t>
+  </si>
+  <si>
+    <t>Esuspend</t>
+  </si>
+  <si>
+    <t>Msuspend</t>
+  </si>
+  <si>
+    <t>Hsuspend</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Female NonHispanic White</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -288,7 +321,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,19 +348,24 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002240"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -342,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -365,9 +403,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -376,6 +411,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,10 +748,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -848,10 +893,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1644,13 +1689,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
@@ -2366,13 +2411,13 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
@@ -3100,7 +3145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAAF5CD-70F7-4B10-9E84-BD9EF2E2E0B8}">
   <dimension ref="A1:E296"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -3114,13 +3159,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
@@ -3313,13 +3358,13 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
@@ -3928,13 +3973,13 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
@@ -4124,13 +4169,13 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="13" t="s">
+      <c r="A113" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
@@ -4320,13 +4365,13 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="13" t="s">
+      <c r="A150" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B150" s="13"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="13"/>
-      <c r="E150" s="13"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
@@ -4516,13 +4561,13 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="13" t="s">
+      <c r="A187" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B187" s="13"/>
-      <c r="C187" s="13"/>
-      <c r="D187" s="13"/>
-      <c r="E187" s="13"/>
+      <c r="B187" s="12"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="9" t="s">
@@ -4712,13 +4757,13 @@
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="13" t="s">
+      <c r="A224" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B224" s="13"/>
-      <c r="C224" s="13"/>
-      <c r="D224" s="13"/>
-      <c r="E224" s="13"/>
+      <c r="B224" s="12"/>
+      <c r="C224" s="12"/>
+      <c r="D224" s="12"/>
+      <c r="E224" s="12"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="9" t="s">
@@ -5324,13 +5369,13 @@
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A261" s="13" t="s">
+      <c r="A261" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B261" s="13"/>
-      <c r="C261" s="13"/>
-      <c r="D261" s="13"/>
-      <c r="E261" s="13"/>
+      <c r="B261" s="12"/>
+      <c r="C261" s="12"/>
+      <c r="D261" s="12"/>
+      <c r="E261" s="12"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="9" t="s">
@@ -5536,530 +5581,1187 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31926CAF-62B9-4A34-B47E-65B757D7C979}">
-  <dimension ref="A1:E36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E851AB-1D7F-4DFE-BF3D-5C15D08D4D08}">
+  <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="14"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13"/>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.38124609999999998</v>
+      </c>
+      <c r="D3">
+        <v>0.61875389999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.65099269999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.34900730000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0.70821529999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.29178470000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0.35779820000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.64220180000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0.3719807</v>
+      </c>
+      <c r="D7">
+        <v>0.62801929999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>0.6245695</v>
+      </c>
+      <c r="D8">
+        <v>0.3754305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>0.69900139999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.30099860000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10">
         <v>14</v>
       </c>
-      <c r="C3">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="D3">
-        <v>5.0060000000000002</v>
-      </c>
-      <c r="E3">
-        <v>0.29199999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="D4">
-        <v>-1.3779999999999999</v>
-      </c>
-      <c r="E4">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="D5">
-        <v>-8.1000000000000003E-2</v>
-      </c>
-      <c r="E5">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" t="s">
+      <c r="C10">
+        <v>0.3421053</v>
+      </c>
+      <c r="D10">
+        <v>0.65789470000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="D6">
-        <v>-2.714</v>
-      </c>
-      <c r="E6">
-        <v>-0.158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D7">
-        <v>5.8140000000000001</v>
-      </c>
-      <c r="E7">
-        <v>0.33900000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="D8">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="E8">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9">
-        <v>0.01</v>
-      </c>
-      <c r="D9">
-        <v>1.548</v>
-      </c>
-      <c r="E9">
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="D10">
-        <v>-0.56399999999999995</v>
-      </c>
-      <c r="E10">
-        <v>-4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="D11">
-        <v>-2.5760000000000001</v>
-      </c>
-      <c r="E11">
-        <v>-7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.43553360000000002</v>
+      </c>
+      <c r="D14">
+        <v>0.56446640000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0.73458730000000005</v>
+      </c>
+      <c r="D15">
+        <v>0.2654127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0.4787535</v>
+      </c>
+      <c r="D16">
+        <v>0.52124649999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>0.47706419999999999</v>
+      </c>
+      <c r="D17">
+        <v>0.52293579999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>0.39613530000000002</v>
+      </c>
+      <c r="D18">
+        <v>0.60386470000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>0.74167620000000001</v>
+      </c>
+      <c r="D19">
+        <v>0.25832379999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>0.44793149999999998</v>
+      </c>
+      <c r="D20">
+        <v>0.55206849999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>0.377193</v>
+      </c>
+      <c r="D21">
+        <v>0.622807</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" t="s">
         <v>60</v>
       </c>
-      <c r="C12">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="D12">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="E12">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0.38926589</v>
+      </c>
+      <c r="D25">
+        <v>0.61073411</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>0.18808776999999999</v>
+      </c>
+      <c r="D26">
+        <v>0.81191223000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>9.6317280000000005E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.90368272000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>0.17431193</v>
+      </c>
+      <c r="D28">
+        <v>0.82568807</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>0.36050725</v>
+      </c>
+      <c r="D29">
+        <v>0.63949275000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>0.24913892000000001</v>
+      </c>
+      <c r="D30">
+        <v>0.75086107999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>0.11697575</v>
+      </c>
+      <c r="D31">
+        <v>0.88302424999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>0.15789474000000001</v>
+      </c>
+      <c r="D32">
+        <v>0.84210525999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0.98704502999999999</v>
+      </c>
+      <c r="D36">
+        <v>1.295497E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>0.92058516000000001</v>
+      </c>
+      <c r="D37">
+        <v>7.941484E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>0.97592067999999998</v>
+      </c>
+      <c r="D38">
+        <v>2.4079320000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>0.94495412999999995</v>
+      </c>
+      <c r="D39">
+        <v>5.5045869999999997E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="13"/>
+      <c r="B40">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>0.94142512</v>
+      </c>
+      <c r="D40">
+        <v>5.8574880000000003E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="13"/>
+      <c r="B41">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>0.79563720000000004</v>
+      </c>
+      <c r="D41">
+        <v>0.20436280000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="13"/>
+      <c r="B42">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>0.90299571999999995</v>
+      </c>
+      <c r="D42">
+        <v>9.7004279999999998E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="13"/>
+      <c r="B43">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <v>0.96491227999999996</v>
+      </c>
+      <c r="D43">
+        <v>3.5087720000000003E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="13"/>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="13"/>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0.80752619999999997</v>
+      </c>
+      <c r="D47">
+        <v>0.1924738</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="13"/>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>0.57262279999999999</v>
+      </c>
+      <c r="D48">
+        <v>0.42737720000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="13"/>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>0.73512750000000004</v>
+      </c>
+      <c r="D49">
+        <v>0.26487250000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="13"/>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>0.68807339999999995</v>
+      </c>
+      <c r="D50">
+        <v>0.3119266</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="13"/>
+      <c r="B51">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>0.64855070000000004</v>
+      </c>
+      <c r="D51">
+        <v>0.35144930000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="13"/>
+      <c r="B52">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>0.39150400000000002</v>
+      </c>
+      <c r="D52">
+        <v>0.60849600000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="13"/>
+      <c r="B53">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>0.55920110000000001</v>
+      </c>
+      <c r="D53">
+        <v>0.44079889999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="13"/>
+      <c r="B54">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>0.71052630000000006</v>
+      </c>
+      <c r="D54">
+        <v>0.2894737</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="13"/>
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="13"/>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>0.96113510000000002</v>
+      </c>
+      <c r="D58">
+        <v>3.8864900000000001E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="13"/>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>0.93625913999999999</v>
+      </c>
+      <c r="D59">
+        <v>6.3740859999999996E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="13"/>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>0.96317280000000005</v>
+      </c>
+      <c r="D60">
+        <v>3.6827199999999997E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="13"/>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>0.95412843999999997</v>
+      </c>
+      <c r="D61">
+        <v>4.5871559999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="13"/>
+      <c r="B62">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>0.92874396000000004</v>
+      </c>
+      <c r="D62">
+        <v>7.1256040000000007E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="13"/>
+      <c r="B63">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>0.89667048999999999</v>
+      </c>
+      <c r="D63">
+        <v>0.10332951</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="13"/>
+      <c r="B64">
+        <v>13</v>
+      </c>
+      <c r="C64">
+        <v>0.91868759</v>
+      </c>
+      <c r="D64">
+        <v>8.1312410000000002E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="13"/>
+      <c r="B65">
+        <v>14</v>
+      </c>
+      <c r="C65">
+        <v>0.92105263000000004</v>
+      </c>
+      <c r="D65">
+        <v>7.8947370000000003E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="13"/>
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="13"/>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>0.97038864999999996</v>
+      </c>
+      <c r="D69">
+        <v>2.9611350000000002E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="13"/>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>0.96760710999999999</v>
+      </c>
+      <c r="D70">
+        <v>3.2392890000000001E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="13"/>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>0.95184135999999997</v>
+      </c>
+      <c r="D71">
+        <v>4.8158640000000003E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="13"/>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>0.98165137999999996</v>
+      </c>
+      <c r="D72">
+        <v>1.834862E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="13"/>
+      <c r="B73">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>0.96980675999999999</v>
+      </c>
+      <c r="D73">
+        <v>3.019324E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="13"/>
+      <c r="B74">
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <v>0.93685419000000003</v>
+      </c>
+      <c r="D74">
+        <v>6.3145809999999997E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="13"/>
+      <c r="B75">
+        <v>13</v>
+      </c>
+      <c r="C75">
+        <v>0.95863052999999998</v>
+      </c>
+      <c r="D75">
+        <v>4.1369469999999998E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="13"/>
+      <c r="B76">
+        <v>14</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="13"/>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="13"/>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>0.89759407999999996</v>
+      </c>
+      <c r="D80">
+        <v>0.10240592</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="13"/>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>0.84848484999999996</v>
+      </c>
+      <c r="D81">
+        <v>0.15151514999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="13"/>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>0.84844193000000001</v>
+      </c>
+      <c r="D82">
+        <v>0.15155806999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="13"/>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>0.90825688000000004</v>
+      </c>
+      <c r="D83">
+        <v>9.1743119999999997E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="13"/>
+      <c r="B84">
+        <v>11</v>
+      </c>
+      <c r="C84">
+        <v>0.86956522000000003</v>
+      </c>
+      <c r="D84">
+        <v>0.13043478</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="13"/>
+      <c r="B85">
+        <v>12</v>
+      </c>
+      <c r="C85">
+        <v>0.74971297000000003</v>
+      </c>
+      <c r="D85">
+        <v>0.25028703000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="13"/>
+      <c r="B86">
+        <v>13</v>
+      </c>
+      <c r="C86">
+        <v>0.77032809999999996</v>
+      </c>
+      <c r="D86">
+        <v>0.22967190000000001</v>
+      </c>
+      <c r="H86" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I86" s="16"/>
+      <c r="J86" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K86" s="15"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="13"/>
+      <c r="B87">
+        <v>14</v>
+      </c>
+      <c r="C87">
+        <v>0.86842105000000003</v>
+      </c>
+      <c r="D87">
+        <v>0.13157895</v>
+      </c>
+      <c r="H87" t="s">
+        <v>88</v>
+      </c>
+      <c r="I87" t="s">
+        <v>90</v>
+      </c>
+      <c r="J87" t="s">
+        <v>88</v>
+      </c>
+      <c r="K87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="13"/>
+      <c r="B89" t="s">
+        <v>82</v>
+      </c>
+      <c r="F89" t="s">
         <v>61</v>
       </c>
-      <c r="C13">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="D13">
-        <v>0.111</v>
-      </c>
-      <c r="E13">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="D14">
-        <v>1.974</v>
-      </c>
-      <c r="E14">
-        <v>5.7000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" t="s">
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="13"/>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>0.99753238700000002</v>
+      </c>
+      <c r="D91">
+        <v>2.467613E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="13"/>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>0.996865204</v>
+      </c>
+      <c r="D92">
+        <v>3.134796E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="13"/>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="13"/>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>0.99082568800000004</v>
+      </c>
+      <c r="D94">
+        <v>9.1743120000000004E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="13"/>
+      <c r="B95">
+        <v>11</v>
+      </c>
+      <c r="C95">
+        <v>0.99335748800000001</v>
+      </c>
+      <c r="D95">
+        <v>6.6425119999999997E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="13"/>
+      <c r="B96">
+        <v>12</v>
+      </c>
+      <c r="C96">
+        <v>0.98622273199999999</v>
+      </c>
+      <c r="D96">
+        <v>1.3777268000000001E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="13"/>
+      <c r="B97">
+        <v>13</v>
+      </c>
+      <c r="C97">
+        <v>0.990014265</v>
+      </c>
+      <c r="D97">
+        <v>9.9857350000000008E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="13"/>
+      <c r="B98">
         <v>14</v>
       </c>
-      <c r="C16">
-        <v>0.186</v>
-      </c>
-      <c r="D16">
-        <v>0.745</v>
-      </c>
-      <c r="E16">
-        <v>0.745</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="D17">
-        <v>-0.45600000000000002</v>
-      </c>
-      <c r="E17">
-        <v>-0.45600000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="D18">
-        <v>-0.82499999999999996</v>
-      </c>
-      <c r="E18">
-        <v>-0.82499999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" t="s">
+      <c r="C98">
+        <v>0.98245614000000003</v>
+      </c>
+      <c r="D98">
+        <v>1.7543860000000001E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="13"/>
+      <c r="B100" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C101">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="D19">
-        <v>0.249</v>
-      </c>
-      <c r="E19">
-        <v>0.249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D20">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="E20">
-        <v>0.36499999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="D21">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="E21">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="D22">
-        <v>0.04</v>
-      </c>
-      <c r="E22">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="D23">
-        <v>-0.191</v>
-      </c>
-      <c r="E23">
-        <v>-9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="D24">
-        <v>0.18</v>
-      </c>
-      <c r="E24">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25">
-        <v>2E-3</v>
-      </c>
-      <c r="D25">
-        <v>-0.42099999999999999</v>
-      </c>
-      <c r="E25">
-        <v>-0.193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="D26">
-        <v>-2.4E-2</v>
-      </c>
-      <c r="E26">
-        <v>-1.2E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" t="s">
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="13"/>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>0.95126465000000004</v>
+      </c>
+      <c r="D102">
+        <v>4.8735349999999997E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="13"/>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>0.96551724000000005</v>
+      </c>
+      <c r="D103">
+        <v>3.4482760000000001E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="13"/>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>0.95892350999999998</v>
+      </c>
+      <c r="D104">
+        <v>4.107649E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="13"/>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>0.94495412999999995</v>
+      </c>
+      <c r="D105">
+        <v>5.5045869999999997E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="13"/>
+      <c r="B106">
+        <v>11</v>
+      </c>
+      <c r="C106">
+        <v>0.87439613999999999</v>
+      </c>
+      <c r="D106">
+        <v>0.12560386000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="13"/>
+      <c r="B107">
+        <v>12</v>
+      </c>
+      <c r="C107">
+        <v>0.77152697999999997</v>
+      </c>
+      <c r="D107">
+        <v>0.22847302</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="13"/>
+      <c r="B108">
+        <v>13</v>
+      </c>
+      <c r="C108">
+        <v>0.83024251000000004</v>
+      </c>
+      <c r="D108">
+        <v>0.16975749000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="13"/>
+      <c r="B109">
         <v>14</v>
       </c>
-      <c r="C28">
-        <v>0.214</v>
-      </c>
-      <c r="D28">
-        <v>-1.58</v>
-      </c>
-      <c r="E28">
-        <v>-1.58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29">
-        <v>0.111</v>
-      </c>
-      <c r="D29">
-        <v>1.4259999999999999</v>
-      </c>
-      <c r="E29">
-        <v>1.4259999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="D30">
-        <v>1.708</v>
-      </c>
-      <c r="E30">
-        <v>1.708</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="D31">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E31">
-        <v>5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32">
-        <v>0.626</v>
-      </c>
-      <c r="D32">
-        <v>1.9E-2</v>
-      </c>
-      <c r="E32">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="D33">
-        <v>-8.3000000000000004E-2</v>
-      </c>
-      <c r="E33">
-        <v>-4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="D34">
-        <v>-0.35399999999999998</v>
-      </c>
-      <c r="E34">
-        <v>-0.114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="D35">
-        <v>-0.11799999999999999</v>
-      </c>
-      <c r="E35">
-        <v>-5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="D36">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="E36">
-        <v>7.2999999999999995E-2</v>
+      <c r="C109">
+        <v>0.91228070000000006</v>
+      </c>
+      <c r="D109">
+        <v>8.77193E-2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="H86:I86"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/SEM in R/Quinn_Notes.xlsx
+++ b/SEM in R/Quinn_Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/SEM in R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="433" documentId="8_{737A221D-7FC4-43CF-B00B-E511F3168D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BAC98144-4127-47CC-BD35-FEE27A5C4E14}"/>
+  <xr:revisionPtr revIDLastSave="434" documentId="8_{737A221D-7FC4-43CF-B00B-E511F3168D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{99C3FA44-EC77-425A-84BF-A1C15A5C16A3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{3EF1A710-6A72-4739-B301-7D4DC35B80AF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{3EF1A710-6A72-4739-B301-7D4DC35B80AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Model" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="87">
   <si>
     <t>ELEMSCHOOL</t>
   </si>
@@ -299,18 +299,6 @@
   </si>
   <si>
     <t>Hsuspend</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>Female NonHispanic White</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
 </sst>
 </file>
@@ -403,6 +391,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -412,10 +404,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -742,18 +730,18 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="142.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="142.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -761,7 +749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -769,7 +757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -777,7 +765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -785,7 +773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -793,7 +781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -801,7 +789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -809,7 +797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -817,7 +805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -825,7 +813,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -833,7 +821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -841,7 +829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -849,7 +837,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -857,7 +845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -865,7 +853,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -886,19 +874,19 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="118.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="118.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="129" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -906,7 +894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -914,7 +902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -922,7 +910,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -930,7 +918,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -938,7 +926,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -946,7 +934,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -954,7 +942,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -962,7 +950,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -970,37 +958,37 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>50</v>
       </c>
@@ -1021,14 +1009,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
     <col min="4" max="4" width="12" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1042,7 +1030,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1057,7 +1045,7 @@
         <v>0.53686962389145954</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1072,7 +1060,7 @@
         <v>0.92588985360649534</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1087,7 +1075,7 @@
         <v>1.5053117204855597</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1090,7 @@
         <v>1.3485096234729106</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1117,7 +1105,7 @@
         <v>1.8589280418463421</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -1132,7 +1120,7 @@
         <v>1.0811226586700831</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -1147,7 +1135,7 @@
         <v>1.1864907490217118</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -1162,7 +1150,7 @@
         <v>1.0335505392413056</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -1177,7 +1165,7 @@
         <v>1.0996588551261028</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -1192,7 +1180,7 @@
         <v>1.0523228932832038</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1207,7 +1195,7 @@
         <v>1.0010005001667084</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -1222,7 +1210,7 @@
         <v>0.97921896456945956</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -1237,7 +1225,7 @@
         <v>1.2386226547934522</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -1252,7 +1240,7 @@
         <v>1.0130848673598092</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1267,12 +1255,12 @@
         <v>0.98314368463490964</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1287,7 +1275,7 @@
         <v>3.5324793858860009</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -1302,7 +1290,7 @@
         <v>1.0575976837366112</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1317,7 +1305,7 @@
         <v>0.43911233950446971</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +1320,7 @@
         <v>0.85898828074112343</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -1347,7 +1335,7 @@
         <v>0.80412544166655964</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -1362,7 +1350,7 @@
         <v>1.0376930208381572</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -1377,7 +1365,7 @@
         <v>0.94364994743679853</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1392,7 +1380,7 @@
         <v>0.83027359498193265</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -1407,7 +1395,7 @@
         <v>1.0356197087996233</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1422,7 +1410,7 @@
         <v>1.0356197087996233</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1437,7 +1425,7 @@
         <v>1.0140984589384923</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -1452,7 +1440,7 @@
         <v>0.69280964504439169</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1467,7 +1455,7 @@
         <v>0.99800199866733308</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1482,12 +1470,12 @@
         <v>1.1864907490217118</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1502,7 +1490,7 @@
         <v>2.2122276626587873</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -1517,7 +1505,7 @@
         <v>1.0294245944751308</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -1532,7 +1520,7 @@
         <v>0.64274963545553121</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -1547,7 +1535,7 @@
         <v>1.0325175053051183</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -1562,7 +1550,7 @@
         <v>0.95599748183309996</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -1577,7 +1565,7 @@
         <v>0.92681620655938224</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -1592,7 +1580,7 @@
         <v>1.0865418085482381</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1607,7 +1595,7 @@
         <v>0.997004495503373</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -1622,7 +1610,7 @@
         <v>1.0070245572668486</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -1637,7 +1625,7 @@
         <v>0.86588774805920499</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -1652,7 +1640,7 @@
         <v>1.0554846021550801</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -1681,23 +1669,23 @@
       <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>68</v>
       </c>
@@ -1711,12 +1699,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1734,7 +1722,7 @@
         <v>0.74976159223904126</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1752,7 +1740,7 @@
         <v>0.95408739759037109</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1770,7 +1758,7 @@
         <v>1.2411023790006717</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1788,7 +1776,7 @@
         <v>1.2448312766875311</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -1806,7 +1794,7 @@
         <v>1.1900555658203626</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1824,7 +1812,7 @@
         <v>1.0639623447280337</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1842,7 +1830,7 @@
         <v>1.2116705169649005</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -1860,7 +1848,7 @@
         <v>1.0335505392413056</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -1878,7 +1866,7 @@
         <v>1.0060180360540649</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -1896,7 +1884,7 @@
         <v>0.981179362242806</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1914,7 +1902,7 @@
         <v>1.0232665395472176</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -1932,7 +1920,7 @@
         <v>0.95408739759037109</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1950,7 +1938,7 @@
         <v>1.0597149957102876</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -1968,12 +1956,12 @@
         <v>1.028395684421425</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1991,7 +1979,7 @@
         <v>5.8066278622583853</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -2009,7 +1997,7 @@
         <v>1.0325175053051183</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -2027,7 +2015,7 @@
         <v>0.27692737258701711</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2045,7 +2033,7 @@
         <v>0.86156911489895827</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -2063,7 +2051,7 @@
         <v>0.66034028070498285</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -2081,7 +2069,7 @@
         <v>0.97044553354850815</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -2099,7 +2087,7 @@
         <v>0.90393303288586413</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -2117,7 +2105,7 @@
         <v>0.84959118841459025</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -2135,7 +2123,7 @@
         <v>0.94553913589039629</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -2153,7 +2141,7 @@
         <v>0.981179362242806</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -2171,7 +2159,7 @@
         <v>0.99501247919268232</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -2189,7 +2177,7 @@
         <v>0.62375351291775216</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -2207,12 +2195,12 @@
         <v>0.99900049983337502</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -2230,7 +2218,7 @@
         <v>2.0917478325432208</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -2248,7 +2236,7 @@
         <v>1.0140984589384923</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -2266,7 +2254,7 @@
         <v>0.55933874805472683</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -2284,7 +2272,7 @@
         <v>0.99501247919268232</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -2302,7 +2290,7 @@
         <v>0.95886978057248451</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -2320,7 +2308,7 @@
         <v>0.9057427080235485</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -2338,7 +2326,7 @@
         <v>1.0628989141871952</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -2356,7 +2344,7 @@
         <v>0.96464029348312308</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -2374,7 +2362,7 @@
         <v>1.0387312328784977</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -2392,7 +2380,7 @@
         <v>0.8833798408827509</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -2410,16 +2398,16 @@
         <v>1.0304545339535169</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
@@ -2436,7 +2424,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -2454,7 +2442,7 @@
         <v>0.16662658302554365</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -2472,7 +2460,7 @@
         <v>1.3458152994480976</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -2490,7 +2478,7 @@
         <v>3.4764094711825293</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -2508,7 +2496,7 @@
         <v>3.3905766155134955</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -2526,7 +2514,7 @@
         <v>0.86935823539880586</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -2544,7 +2532,7 @@
         <v>1.0607752407401589</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -2562,7 +2550,7 @@
         <v>1.2020158230963014</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -2580,7 +2568,7 @@
         <v>1.0376930208381572</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -2598,7 +2586,7 @@
         <v>1.0151130646157189</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -2616,7 +2604,7 @@
         <v>1.0080320855042735</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>43</v>
       </c>
@@ -2634,7 +2622,7 @@
         <v>1.0232665395472176</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -2652,7 +2640,7 @@
         <v>1.0222437844704382</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -2670,7 +2658,7 @@
         <v>1.1331484530668263</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -2688,13 +2676,13 @@
         <v>0.92867169384128723</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B61"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -2712,7 +2700,7 @@
         <v>7.2482153430290276E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>52</v>
       </c>
@@ -2730,7 +2718,7 @@
         <v>2.5269170439795579</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>53</v>
       </c>
@@ -2748,7 +2736,7 @@
         <v>33.716927130755387</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -2766,7 +2754,7 @@
         <v>13.000658369670637</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -2784,7 +2772,7 @@
         <v>1.5449630589513383</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>55</v>
       </c>
@@ -2802,7 +2790,7 @@
         <v>0.92035114722012468</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>57</v>
       </c>
@@ -2820,7 +2808,7 @@
         <v>1.1140477453864677</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>58</v>
       </c>
@@ -2838,7 +2826,7 @@
         <v>0.99900049983337502</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>59</v>
       </c>
@@ -2856,7 +2844,7 @@
         <v>0.82201223467818652</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>43</v>
       </c>
@@ -2874,7 +2862,7 @@
         <v>1.0554846021550801</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>60</v>
       </c>
@@ -2892,7 +2880,7 @@
         <v>1.0639623447280337</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>61</v>
       </c>
@@ -2910,7 +2898,7 @@
         <v>1.2068335153496053</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>62</v>
       </c>
@@ -2928,13 +2916,13 @@
         <v>0.80734838502268147</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B75"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -2952,7 +2940,7 @@
         <v>5.2330799221780682</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>52</v>
       </c>
@@ -2970,7 +2958,7 @@
         <v>0.84197917316849991</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>53</v>
       </c>
@@ -2988,7 +2976,7 @@
         <v>0.32627979462303947</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>55</v>
       </c>
@@ -3006,7 +2994,7 @@
         <v>1.054429645119356</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>57</v>
       </c>
@@ -3024,7 +3012,7 @@
         <v>0.95886978057248451</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>58</v>
       </c>
@@ -3042,7 +3030,7 @@
         <v>0.93706746337740343</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>59</v>
       </c>
@@ -3060,7 +3048,7 @@
         <v>1.1129342544793257</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>43</v>
       </c>
@@ -3078,7 +3066,7 @@
         <v>1.0060180360540649</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -3096,7 +3084,7 @@
         <v>0.99104037877288365</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>61</v>
       </c>
@@ -3114,7 +3102,7 @@
         <v>0.84197917316849991</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>62</v>
       </c>
@@ -3149,28 +3137,28 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>51</v>
       </c>
@@ -3187,189 +3175,189 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>51</v>
       </c>
@@ -3386,7 +3374,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -3404,7 +3392,7 @@
         <v>2.2411743681943785</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -3422,7 +3410,7 @@
         <v>0.76874189731116027</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -3440,7 +3428,7 @@
         <v>1.8964808793049515</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -3458,7 +3446,7 @@
         <v>1.5311207751332474</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -3476,7 +3464,7 @@
         <v>2.3233265117943045</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -3494,7 +3482,7 @@
         <v>1.0460278599087169</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -3512,7 +3500,7 @@
         <v>1.0822043220703148</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -3530,7 +3518,7 @@
         <v>1.1723379466807176</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -3548,7 +3536,7 @@
         <v>1.1018603736210106</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -3566,7 +3554,7 @@
         <v>0.92867169384128723</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -3584,7 +3572,7 @@
         <v>1.362062370503422</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -3602,12 +3590,12 @@
         <v>1.0181629763897937</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -3625,7 +3613,7 @@
         <v>2.2210942947514352</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -3643,7 +3631,7 @@
         <v>3.407571951524154</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -3661,7 +3649,7 @@
         <v>1.7177237273365471</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -3679,7 +3667,7 @@
         <v>0.74527649144328867</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -3697,7 +3685,7 @@
         <v>2.7704229553356319</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -3715,7 +3703,7 @@
         <v>0.99302444293323511</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -3733,7 +3721,7 @@
         <v>0.84704623418939962</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -3751,7 +3739,7 @@
         <v>0.87985337914464379</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -3769,7 +3757,7 @@
         <v>1.0735812258683575</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -3787,7 +3775,7 @@
         <v>0.66166228282784834</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -3805,12 +3793,12 @@
         <v>0.98019867330675525</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -3828,7 +3816,7 @@
         <v>0.55654903441046488</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>52</v>
       </c>
@@ -3846,7 +3834,7 @@
         <v>0.99800199866733308</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>53</v>
       </c>
@@ -3864,7 +3852,7 @@
         <v>0.63191524489949591</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>55</v>
       </c>
@@ -3882,7 +3870,7 @@
         <v>1.1456818935948618</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>57</v>
       </c>
@@ -3900,7 +3888,7 @@
         <v>0.94270676915709972</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>58</v>
       </c>
@@ -3918,7 +3906,7 @@
         <v>0.91028276224076698</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>60</v>
       </c>
@@ -3936,7 +3924,7 @@
         <v>1.0181629763897937</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>61</v>
       </c>
@@ -3954,7 +3942,7 @@
         <v>0.90212697348151649</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>62</v>
       </c>
@@ -3972,16 +3960,16 @@
         <v>1.0140984589384923</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="12" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>51</v>
       </c>
@@ -3998,186 +3986,186 @@
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="12" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>51</v>
       </c>
@@ -4194,186 +4182,186 @@
         <v>66</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="12" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B150" s="12"/>
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B150" s="14"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>51</v>
       </c>
@@ -4390,186 +4378,186 @@
         <v>66</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="12" t="s">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B187" s="12"/>
-      <c r="C187" s="12"/>
-      <c r="D187" s="12"/>
-      <c r="E187" s="12"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B187" s="14"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="14"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>51</v>
       </c>
@@ -4586,186 +4574,186 @@
         <v>66</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="12" t="s">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B224" s="12"/>
-      <c r="C224" s="12"/>
-      <c r="D224" s="12"/>
-      <c r="E224" s="12"/>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B224" s="14"/>
+      <c r="C224" s="14"/>
+      <c r="D224" s="14"/>
+      <c r="E224" s="14"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
         <v>51</v>
       </c>
@@ -4782,7 +4770,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>14</v>
       </c>
@@ -4800,7 +4788,7 @@
         <v>1.3391030176392937</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>52</v>
       </c>
@@ -4818,7 +4806,7 @@
         <v>0.92311634638663576</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>53</v>
       </c>
@@ -4836,7 +4824,7 @@
         <v>0.99501247919268232</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -4854,7 +4842,7 @@
         <v>0.85384978196848171</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>54</v>
       </c>
@@ -4872,7 +4860,7 @@
         <v>1.4035433452127262</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>55</v>
       </c>
@@ -4890,7 +4878,7 @@
         <v>1.0080320855042735</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>56</v>
       </c>
@@ -4908,7 +4896,7 @@
         <v>1.1107106103557052</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>57</v>
       </c>
@@ -4926,7 +4914,7 @@
         <v>0.95313378707750473</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>58</v>
       </c>
@@ -4944,7 +4932,7 @@
         <v>0.92774348632855286</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>60</v>
       </c>
@@ -4962,7 +4950,7 @@
         <v>1.005012520859401</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>61</v>
       </c>
@@ -4980,7 +4968,7 @@
         <v>1.0030045045033771</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>62</v>
       </c>
@@ -4998,12 +4986,12 @@
         <v>1.0586558103955002</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>14</v>
       </c>
@@ -5021,7 +5009,7 @@
         <v>2.1064414349807272</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>52</v>
       </c>
@@ -5039,7 +5027,7 @@
         <v>0.63381383709854899</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>53</v>
       </c>
@@ -5057,7 +5045,7 @@
         <v>0.43823499246494924</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>0</v>
       </c>
@@ -5075,7 +5063,7 @@
         <v>1.2827420330698114</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>63</v>
       </c>
@@ -5093,7 +5081,7 @@
         <v>1.4405140081492172</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>55</v>
       </c>
@@ -5111,7 +5099,7 @@
         <v>1.0941742837052104</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>57</v>
       </c>
@@ -5129,7 +5117,7 @@
         <v>1.0597149957102876</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>58</v>
       </c>
@@ -5147,7 +5135,7 @@
         <v>0.90937293446823142</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>60</v>
       </c>
@@ -5165,7 +5153,7 @@
         <v>1.0597149957102876</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>61</v>
       </c>
@@ -5183,7 +5171,7 @@
         <v>0.82448197413910818</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>62</v>
       </c>
@@ -5201,12 +5189,12 @@
         <v>0.98807171286193052</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>14</v>
       </c>
@@ -5224,7 +5212,7 @@
         <v>0.20597509820488344</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>52</v>
       </c>
@@ -5242,7 +5230,7 @@
         <v>4.1620177802208342</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>53</v>
       </c>
@@ -5260,7 +5248,7 @@
         <v>5.5179146052234467</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>55</v>
       </c>
@@ -5278,7 +5266,7 @@
         <v>1.054429645119356</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>57</v>
       </c>
@@ -5296,7 +5284,7 @@
         <v>1.0273678027634894</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>58</v>
       </c>
@@ -5314,7 +5302,7 @@
         <v>0.9598291299477989</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>60</v>
       </c>
@@ -5332,7 +5320,7 @@
         <v>0.8922579558824083</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>61</v>
       </c>
@@ -5350,7 +5338,7 @@
         <v>0.94743210650179832</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>62</v>
       </c>
@@ -5368,16 +5356,16 @@
         <v>1.0757305369147034</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A261" s="12" t="s">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B261" s="12"/>
-      <c r="C261" s="12"/>
-      <c r="D261" s="12"/>
-      <c r="E261" s="12"/>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B261" s="14"/>
+      <c r="C261" s="14"/>
+      <c r="D261" s="14"/>
+      <c r="E261" s="14"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="s">
         <v>51</v>
       </c>
@@ -5394,172 +5382,172 @@
         <v>66</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>62</v>
       </c>
@@ -5584,23 +5572,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E851AB-1D7F-4DFE-BF3D-5C15D08D4D08}">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86:K90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="14"/>
+    <col min="1" max="1" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
       <c r="B1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C2">
@@ -5610,8 +5598,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
       <c r="B3">
         <v>1</v>
       </c>
@@ -5622,8 +5610,8 @@
         <v>0.61875389999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
       <c r="B4">
         <v>2</v>
       </c>
@@ -5634,8 +5622,8 @@
         <v>0.34900730000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
       <c r="B5">
         <v>3</v>
       </c>
@@ -5646,8 +5634,8 @@
         <v>0.29178470000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
       <c r="B6">
         <v>4</v>
       </c>
@@ -5658,8 +5646,8 @@
         <v>0.64220180000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
       <c r="B7">
         <v>11</v>
       </c>
@@ -5670,8 +5658,8 @@
         <v>0.62801929999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
       <c r="B8">
         <v>12</v>
       </c>
@@ -5682,8 +5670,8 @@
         <v>0.3754305</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
       <c r="B9">
         <v>13</v>
       </c>
@@ -5694,8 +5682,8 @@
         <v>0.30099860000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
       <c r="B10">
         <v>14</v>
       </c>
@@ -5706,14 +5694,14 @@
         <v>0.65789470000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
       <c r="B12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C13">
@@ -5723,8 +5711,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
       <c r="B14">
         <v>1</v>
       </c>
@@ -5735,8 +5723,8 @@
         <v>0.56446640000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
       <c r="B15">
         <v>2</v>
       </c>
@@ -5747,8 +5735,8 @@
         <v>0.2654127</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
       <c r="B16">
         <v>3</v>
       </c>
@@ -5759,8 +5747,8 @@
         <v>0.52124649999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
       <c r="B17">
         <v>4</v>
       </c>
@@ -5771,8 +5759,8 @@
         <v>0.52293579999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
       <c r="B18">
         <v>11</v>
       </c>
@@ -5783,8 +5771,8 @@
         <v>0.60386470000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
       <c r="B19">
         <v>12</v>
       </c>
@@ -5795,8 +5783,8 @@
         <v>0.25832379999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
       <c r="B20">
         <v>13</v>
       </c>
@@ -5807,8 +5795,8 @@
         <v>0.55206849999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
       <c r="B21">
         <v>14</v>
       </c>
@@ -5819,14 +5807,14 @@
         <v>0.622807</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
       <c r="B23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C24">
@@ -5836,8 +5824,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
       <c r="B25">
         <v>1</v>
       </c>
@@ -5848,8 +5836,8 @@
         <v>0.61073411</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
       <c r="B26">
         <v>2</v>
       </c>
@@ -5860,8 +5848,8 @@
         <v>0.81191223000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
       <c r="B27">
         <v>3</v>
       </c>
@@ -5872,8 +5860,8 @@
         <v>0.90368272000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
       <c r="B28">
         <v>4</v>
       </c>
@@ -5884,8 +5872,8 @@
         <v>0.82568807</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
       <c r="B29">
         <v>11</v>
       </c>
@@ -5896,8 +5884,8 @@
         <v>0.63949275000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
       <c r="B30">
         <v>12</v>
       </c>
@@ -5908,8 +5896,8 @@
         <v>0.75086107999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
       <c r="B31">
         <v>13</v>
       </c>
@@ -5920,8 +5908,8 @@
         <v>0.88302424999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
       <c r="B32">
         <v>14</v>
       </c>
@@ -5932,14 +5920,14 @@
         <v>0.84210525999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
       <c r="B34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C35">
@@ -5949,8 +5937,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
       <c r="B36">
         <v>1</v>
       </c>
@@ -5961,8 +5949,8 @@
         <v>1.295497E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
       <c r="B37">
         <v>2</v>
       </c>
@@ -5973,8 +5961,8 @@
         <v>7.941484E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
       <c r="B38">
         <v>3</v>
       </c>
@@ -5985,8 +5973,8 @@
         <v>2.4079320000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
       <c r="B39">
         <v>4</v>
       </c>
@@ -5997,8 +5985,8 @@
         <v>5.5045869999999997E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
       <c r="B40">
         <v>11</v>
       </c>
@@ -6009,8 +5997,8 @@
         <v>5.8574880000000003E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
       <c r="B41">
         <v>12</v>
       </c>
@@ -6021,8 +6009,8 @@
         <v>0.20436280000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
       <c r="B42">
         <v>13</v>
       </c>
@@ -6033,8 +6021,8 @@
         <v>9.7004279999999998E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
       <c r="B43">
         <v>14</v>
       </c>
@@ -6045,14 +6033,14 @@
         <v>3.5087720000000003E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
       <c r="B45" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C46">
@@ -6062,8 +6050,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="13"/>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
       <c r="B47">
         <v>1</v>
       </c>
@@ -6074,8 +6062,8 @@
         <v>0.1924738</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="13"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
       <c r="B48">
         <v>2</v>
       </c>
@@ -6086,8 +6074,8 @@
         <v>0.42737720000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="13"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
       <c r="B49">
         <v>3</v>
       </c>
@@ -6098,8 +6086,8 @@
         <v>0.26487250000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="13"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
       <c r="B50">
         <v>4</v>
       </c>
@@ -6110,8 +6098,8 @@
         <v>0.3119266</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="13"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
       <c r="B51">
         <v>11</v>
       </c>
@@ -6122,8 +6110,8 @@
         <v>0.35144930000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="13"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
       <c r="B52">
         <v>12</v>
       </c>
@@ -6134,8 +6122,8 @@
         <v>0.60849600000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="13"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
       <c r="B53">
         <v>13</v>
       </c>
@@ -6146,8 +6134,8 @@
         <v>0.44079889999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
       <c r="B54">
         <v>14</v>
       </c>
@@ -6158,14 +6146,14 @@
         <v>0.2894737</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="13"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
       <c r="B56" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C57">
@@ -6175,8 +6163,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="13"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
       <c r="B58">
         <v>1</v>
       </c>
@@ -6187,8 +6175,8 @@
         <v>3.8864900000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="13"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
       <c r="B59">
         <v>2</v>
       </c>
@@ -6199,8 +6187,8 @@
         <v>6.3740859999999996E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="13"/>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
       <c r="B60">
         <v>3</v>
       </c>
@@ -6211,8 +6199,8 @@
         <v>3.6827199999999997E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="13"/>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
       <c r="B61">
         <v>4</v>
       </c>
@@ -6223,8 +6211,8 @@
         <v>4.5871559999999999E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="13"/>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
       <c r="B62">
         <v>11</v>
       </c>
@@ -6235,8 +6223,8 @@
         <v>7.1256040000000007E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="13"/>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
       <c r="B63">
         <v>12</v>
       </c>
@@ -6247,8 +6235,8 @@
         <v>0.10332951</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="13"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
       <c r="B64">
         <v>13</v>
       </c>
@@ -6259,8 +6247,8 @@
         <v>8.1312410000000002E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="13"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="10"/>
       <c r="B65">
         <v>14</v>
       </c>
@@ -6271,14 +6259,14 @@
         <v>7.8947370000000003E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="13"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
       <c r="B67" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="13" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C68">
@@ -6288,8 +6276,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="13"/>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
       <c r="B69">
         <v>1</v>
       </c>
@@ -6300,8 +6288,8 @@
         <v>2.9611350000000002E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="13"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="10"/>
       <c r="B70">
         <v>2</v>
       </c>
@@ -6312,8 +6300,8 @@
         <v>3.2392890000000001E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="13"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
       <c r="B71">
         <v>3</v>
       </c>
@@ -6324,8 +6312,8 @@
         <v>4.8158640000000003E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="13"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="10"/>
       <c r="B72">
         <v>4</v>
       </c>
@@ -6336,8 +6324,8 @@
         <v>1.834862E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="13"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="10"/>
       <c r="B73">
         <v>11</v>
       </c>
@@ -6348,8 +6336,8 @@
         <v>3.019324E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="13"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="10"/>
       <c r="B74">
         <v>12</v>
       </c>
@@ -6360,8 +6348,8 @@
         <v>6.3145809999999997E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="13"/>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
       <c r="B75">
         <v>13</v>
       </c>
@@ -6372,8 +6360,8 @@
         <v>4.1369469999999998E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="13"/>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="10"/>
       <c r="B76">
         <v>14</v>
       </c>
@@ -6384,14 +6372,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="13"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="10"/>
       <c r="B78" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="13" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C79">
@@ -6401,8 +6389,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="13"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="10"/>
       <c r="B80">
         <v>1</v>
       </c>
@@ -6413,8 +6401,8 @@
         <v>0.10240592</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="13"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="10"/>
       <c r="B81">
         <v>2</v>
       </c>
@@ -6425,8 +6413,8 @@
         <v>0.15151514999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="13"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
       <c r="B82">
         <v>3</v>
       </c>
@@ -6437,8 +6425,8 @@
         <v>0.15155806999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="13"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
       <c r="B83">
         <v>4</v>
       </c>
@@ -6449,8 +6437,8 @@
         <v>9.1743119999999997E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="13"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
       <c r="B84">
         <v>11</v>
       </c>
@@ -6461,8 +6449,8 @@
         <v>0.13043478</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="13"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="10"/>
       <c r="B85">
         <v>12</v>
       </c>
@@ -6473,8 +6461,8 @@
         <v>0.25028703000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="13"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="10"/>
       <c r="B86">
         <v>13</v>
       </c>
@@ -6484,17 +6472,13 @@
       <c r="D86">
         <v>0.22967190000000001</v>
       </c>
-      <c r="H86" s="16" t="s">
-        <v>87</v>
-      </c>
+      <c r="H86" s="16"/>
       <c r="I86" s="16"/>
-      <c r="J86" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="J86" s="15"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="13"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="10"/>
       <c r="B87">
         <v>14</v>
       </c>
@@ -6504,38 +6488,15 @@
       <c r="D87">
         <v>0.13157895</v>
       </c>
-      <c r="H87" t="s">
-        <v>88</v>
-      </c>
-      <c r="I87" t="s">
-        <v>90</v>
-      </c>
-      <c r="J87" t="s">
-        <v>88</v>
-      </c>
-      <c r="K87" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F88" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="13"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
       <c r="B89" t="s">
         <v>82</v>
       </c>
-      <c r="F89" t="s">
-        <v>61</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="13" t="s">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C90">
@@ -6544,12 +6505,9 @@
       <c r="D90">
         <v>1</v>
       </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="13"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="10"/>
       <c r="B91">
         <v>1</v>
       </c>
@@ -6560,8 +6518,8 @@
         <v>2.467613E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="13"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="10"/>
       <c r="B92">
         <v>2</v>
       </c>
@@ -6572,8 +6530,8 @@
         <v>3.134796E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="13"/>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="10"/>
       <c r="B93">
         <v>3</v>
       </c>
@@ -6584,8 +6542,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="13"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="10"/>
       <c r="B94">
         <v>4</v>
       </c>
@@ -6596,8 +6554,8 @@
         <v>9.1743120000000004E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="13"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="10"/>
       <c r="B95">
         <v>11</v>
       </c>
@@ -6608,8 +6566,8 @@
         <v>6.6425119999999997E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="13"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="10"/>
       <c r="B96">
         <v>12</v>
       </c>
@@ -6620,8 +6578,8 @@
         <v>1.3777268000000001E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="13"/>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="10"/>
       <c r="B97">
         <v>13</v>
       </c>
@@ -6632,8 +6590,8 @@
         <v>9.9857350000000008E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="13"/>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="10"/>
       <c r="B98">
         <v>14</v>
       </c>
@@ -6644,14 +6602,14 @@
         <v>1.7543860000000001E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="13"/>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="10"/>
       <c r="B100" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="13" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C101">
@@ -6661,8 +6619,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="13"/>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="10"/>
       <c r="B102">
         <v>1</v>
       </c>
@@ -6673,8 +6631,8 @@
         <v>4.8735349999999997E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="13"/>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="10"/>
       <c r="B103">
         <v>2</v>
       </c>
@@ -6685,8 +6643,8 @@
         <v>3.4482760000000001E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="13"/>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="10"/>
       <c r="B104">
         <v>3</v>
       </c>
@@ -6697,8 +6655,8 @@
         <v>4.107649E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="13"/>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="10"/>
       <c r="B105">
         <v>4</v>
       </c>
@@ -6709,8 +6667,8 @@
         <v>5.5045869999999997E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="13"/>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="10"/>
       <c r="B106">
         <v>11</v>
       </c>
@@ -6721,8 +6679,8 @@
         <v>0.12560386000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="13"/>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="10"/>
       <c r="B107">
         <v>12</v>
       </c>
@@ -6733,8 +6691,8 @@
         <v>0.22847302</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="13"/>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="10"/>
       <c r="B108">
         <v>13</v>
       </c>
@@ -6745,8 +6703,8 @@
         <v>0.16975749000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="13"/>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="10"/>
       <c r="B109">
         <v>14</v>
       </c>
